--- a/dssanpham.xlsx
+++ b/dssanpham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="231" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="231" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>MÃ SẢN PHẨM</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>GETFLYCRM</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1862,13 +1865,21 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31:P31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="8.5703125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -1878,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
